--- a/BackTest/2020-01-23 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-23 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3387.237200000001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>203.5620000000013</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>8554.847200000002</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>5272.193100000002</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>9428.201600000002</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>6071.107300000002</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>5019.004800000002</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>7975.476200000002</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>3875.076200000002</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>4348.455200000001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>240.5357000000013</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>5843.458400000001</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2503.392900000002</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2569.297399999998</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10535.7444</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-6017.489699999997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-6663.172599999998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-5939.657999999999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-15958.7842</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-13623.7288</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2045.996000000001</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>2177.443399999999</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>4204.756399999999</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>7005.875499999999</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>3848.212799999999</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>5242.397199999999</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2132.566</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-12251.7888</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-31525.12439999999</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-38634.9708</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-42624.1176</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-68962.34969999999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-71832.07179999999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-71832.07179999999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-68096.0557</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-73005.86899999999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-64661.40279999999</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-60919.61689999999</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-60919.61689999999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-63857.06769999999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-65781.05979999999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-65533.69159999998</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-69345.35969999999</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-63346.26829999999</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-61354.45589999999</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-63261.65889999999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-63261.65889999999</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-57488.68179999999</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-62028.87699999999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-67556.95849999999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-64768.27649999999</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-66584.9136</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-71394.5564</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-71608.89110000001</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-74973.28260000001</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-79688.3894</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-79688.3894</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-80157.19750000001</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-72853.41530000001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-76781.5586</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-83581.38190000001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-77162.9902</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-33529.67</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-39801.5852</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-34843.355</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-30578.8738</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-29128.1513</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-29128.1513</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-31359.7646</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-37692.5386</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-37692.5386</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-37875.3562</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-41096.63370000001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-42953.46000000001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-42953.46000000001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-38993.81680000001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-38993.81680000001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-42219.27190000001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-39818.5047</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-44175.1476</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-44175.1476</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-45017.3712</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-40778.9058</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-40778.9058</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-34573.7908</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-34573.7908</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-35704.84270000001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-35704.84270000001</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-31082.76850000001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-37349.88480000001</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-39522.5675</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-44108.16510000001</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-44108.16510000001</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-38117.87680000001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-43137.1963</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-46980.0941</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-51665.4147</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-49469.4732</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-43176.9325</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-47032.3704</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-45813.2969</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-48164.10750000001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-44645.8083</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-40405.81429330001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-44361.9246933</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-46007.16049330001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-40879.77599330001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-38098.3831933</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-36093.52309330001</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-41479.21489330001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-41479.21489330001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-37060.04209330001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-39532.9148933</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-36197.95619330001</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-26973.51619330001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-28138.2320933</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-28853.2590933</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-28853.2590933</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-27396.7441933</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-27663.8555933</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-25596.2370933</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-23311.6627933</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-23400.7187933</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-23400.7187933</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-19028.5468933</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-16767.6321933</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-20850.9569933</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-20850.9569933</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-16888.1739933</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-20559.4519933</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-20559.4519933</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-23419.9370933</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-29417.2496933</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-34131.75149329999</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-31210.29139329999</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-36414.57299329999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-31367.87409329999</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-35876.27469329999</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-34046.01699329999</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-38399.35389329999</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-34077.88189329999</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-34077.88189329999</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-30068.65749329999</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-34124.71349329998</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-34124.71349329998</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-35995.70599329998</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-35995.70599329998</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-31748.45569329998</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-49261.92399329998</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-49261.92399329998</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-40957.24049329999</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-35694.93069329998</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-35694.93069329998</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-39240.16229329998</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-34888.22049329998</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-33782.39019329998</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-32561.95989329998</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-36979.35569329998</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-30077.56889329998</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-30519.27689329998</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-25606.14579329998</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-30115.71979329998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-28784.14019329998</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-38257.71769329998</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-40953.21409329998</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-38960.09109329998</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-41900.24069329997</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-41900.24069329997</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-35993.66019329998</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-35993.66019329998</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-29109.39859329998</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-33458.54389329998</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-38708.07439329998</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-45081.97229329997</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-47578.60329329997</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-45190.74529329997</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-40553.20019329997</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-40553.20019329997</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-37680.17439329997</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-36835.32639329997</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-31675.00809329997</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-30311.64649329997</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-32865.54019329997</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-31406.56389329997</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-33743.19679329997</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-32801.15179329997</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-23508.79519329997</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-31592.80399329997</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-26968.60499329997</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-30491.26129329997</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-28589.29939329997</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-29486.97209329997</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-26626.30719329997</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-18777.26769329997</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-5660.664593299966</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-13329.16179329997</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-13204.97369329997</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-4019.948593299967</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-3036.574381559966</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-3036.574381559966</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-2261.439681559966</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-322.8034815599661</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>2671.714618440034</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>5644.579418440033</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-547.6412815599672</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>3452.959818440033</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>6756.025618440033</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>14989.74301844003</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>15578.21851844003</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>31641.06201844003</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>24029.98771844003</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>24029.98771844003</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>22799.23531844003</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>26126.56811844003</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>10342.84741844003</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>10342.84741844003</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>10342.84741844003</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>10342.84741844003</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>9213.283618440031</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>4894.310018440031</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>7584.614918440031</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>12988.33333610003</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>11046.87193610003</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>11046.87193610003</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>9682.248236100031</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>5041.948936100031</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>6514.547736100031</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-8577.60016389997</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-12139.02716389997</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-12139.02716389997</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-9865.86246389997</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-12799.32596389997</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-6176.665263899969</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-6176.665263899969</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-28525.74956389997</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-28525.74956389997</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-27726.78806389997</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-40245.72986389997</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-33986.73866389997</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-33782.77276389997</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-25674.37056389997</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-26786.87186389997</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-64886.07436389997</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-109340.8239639</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>-116321.2542639</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-112533.8191639</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-107902.0268639</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-123957.5762639</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-241205.8366639</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-241205.8366639</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -35332,11 +35332,17 @@
         <v>-357696.6418639</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>219</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35365,11 +35371,17 @@
         <v>-357696.6418639</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>218.8</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35402,7 +35414,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35435,7 +35451,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35468,7 +35488,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35501,7 +35525,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +35558,17 @@
         <v>-356035.6452639</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>219</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35563,11 +35597,17 @@
         <v>-358372.3098639</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>219.8</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35596,11 +35636,17 @@
         <v>-355317.6716639</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>219.6</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35629,11 +35675,17 @@
         <v>-358325.4811639</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35662,11 +35714,17 @@
         <v>-363865.3206639</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>219.8</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35695,11 +35753,17 @@
         <v>-360386.2809639</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>219.4</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35728,11 +35792,17 @@
         <v>-357637.1527639</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>219.6</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35761,11 +35831,17 @@
         <v>-361131.9689639</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>219.7</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35794,11 +35870,17 @@
         <v>-358031.9542639</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>219.4</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35827,11 +35909,17 @@
         <v>-353682.0908639</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>219.8</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35860,11 +35948,17 @@
         <v>-350038.8762639</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>220</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35893,11 +35987,17 @@
         <v>-347272.3000639</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35930,7 +36030,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35963,7 +36067,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35996,7 +36104,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36029,7 +36141,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36062,7 +36178,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36095,7 +36215,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36128,7 +36252,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36161,7 +36289,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36194,7 +36326,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36227,7 +36363,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36260,7 +36400,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36293,7 +36437,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36326,7 +36474,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36359,7 +36511,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36392,7 +36548,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36425,7 +36585,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36458,7 +36622,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36491,7 +36659,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36524,7 +36696,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36557,7 +36733,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36590,7 +36770,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36623,7 +36807,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36656,7 +36844,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36689,7 +36881,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36722,7 +36918,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36755,7 +36955,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36788,7 +36992,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36821,7 +37029,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36850,15 +37062,15 @@
         <v>-366542.2228639</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="J1105" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="K1105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36887,17 +37099,13 @@
         <v>-368021.3648639</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>219.8</v>
-      </c>
-      <c r="J1106" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1106" t="n">
@@ -36931,12 +37139,10 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>219.6</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1107" t="n">
@@ -36971,7 +37177,11 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37004,7 +37214,11 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37037,7 +37251,11 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37070,7 +37288,11 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37103,7 +37325,11 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37136,7 +37362,11 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37169,7 +37399,11 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37198,15 +37432,13 @@
         <v>-350900.0820626199</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1115" t="n">
@@ -37237,11 +37469,9 @@
         <v>-353433.1891626199</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>219.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37276,11 +37506,9 @@
         <v>-350249.2890626199</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37315,11 +37543,9 @@
         <v>-355292.0563626199</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>220.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37354,11 +37580,9 @@
         <v>-352129.3887626199</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37393,11 +37617,9 @@
         <v>-358699.3867626199</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>220.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -39393,11 +39615,9 @@
         <v>-451029.27176262</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1174" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39432,7 +39652,7 @@
         <v>-448543.4649626199</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1175" t="n">
         <v>219.5</v>
@@ -39471,7 +39691,7 @@
         <v>-454752.11476262</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1176" t="n">
         <v>219.7</v>
@@ -39510,7 +39730,7 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1177" t="n">
         <v>219.4</v>
@@ -39549,7 +39769,7 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1178" t="n">
         <v>220.6</v>
@@ -39588,7 +39808,7 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1179" t="n">
         <v>220.6</v>
@@ -39627,7 +39847,7 @@
         <v>-462260.0073626199</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1180" t="n">
         <v>220.6</v>
@@ -39666,9 +39886,11 @@
         <v>-467328.0051626199</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>219.9</v>
+      </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39703,7 +39925,7 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1182" t="n">
         <v>219.8</v>
@@ -39742,9 +39964,11 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>219.4</v>
+      </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39779,7 +40003,7 @@
         <v>-467607.5531626199</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1184" t="n">
         <v>219.4</v>
@@ -39818,7 +40042,7 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1185" t="n">
         <v>219.7</v>
@@ -39857,7 +40081,7 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1186" t="n">
         <v>219.8</v>
@@ -39896,7 +40120,7 @@
         <v>-474203.3716626199</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1187" t="n">
         <v>219.8</v>
@@ -39935,7 +40159,7 @@
         <v>-478169.6287626199</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1188" t="n">
         <v>219.7</v>
@@ -39974,7 +40198,7 @@
         <v>-475040.6305626199</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1189" t="n">
         <v>219.6</v>
@@ -40013,7 +40237,7 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1190" t="n">
         <v>219.7</v>
@@ -40052,7 +40276,7 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1191" t="n">
         <v>219.6</v>
@@ -40091,7 +40315,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1192" t="n">
         <v>219.6</v>
@@ -40130,7 +40354,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1193" t="n">
         <v>220.2</v>
@@ -40169,7 +40393,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1194" t="n">
         <v>220.2</v>
@@ -40208,7 +40432,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1195" t="n">
         <v>220.2</v>
@@ -40247,11 +40471,9 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40286,9 +40508,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40323,7 +40547,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1198" t="n">
         <v>220.2</v>
@@ -40362,7 +40586,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1199" t="n">
         <v>220.1</v>
@@ -40401,7 +40625,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1200" t="n">
         <v>220.1</v>
@@ -40440,11 +40664,9 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40479,11 +40701,9 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40518,11 +40738,9 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40557,11 +40775,9 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40596,11 +40812,9 @@
         <v>-473535.6812626199</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40709,11 +40923,9 @@
         <v>-474359.2541626199</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40785,11 +40997,9 @@
         <v>-473937.0408626199</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41268,11 +41478,9 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41344,11 +41552,9 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
@@ -41383,11 +41589,9 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
@@ -41422,11 +41626,9 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41646,11 +41848,9 @@
         <v>-475342.6726626199</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41685,7 +41885,7 @@
         <v>-479299.5938626198</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1234" t="n">
         <v>220.3</v>
@@ -41724,7 +41924,7 @@
         <v>-477425.0671626198</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1235" t="n">
         <v>220.1</v>
@@ -41763,7 +41963,7 @@
         <v>-477425.0671626198</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1236" t="n">
         <v>220.2</v>
@@ -41802,7 +42002,7 @@
         <v>-469964.6972626199</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1237" t="n">
         <v>220.2</v>
@@ -41841,7 +42041,7 @@
         <v>-475837.9757626199</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1238" t="n">
         <v>220.7</v>
@@ -41880,7 +42080,7 @@
         <v>-475837.9757626199</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1239" t="n">
         <v>220.4</v>
@@ -41919,7 +42119,7 @@
         <v>-484189.3859626199</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>220.4</v>
@@ -41958,7 +42158,7 @@
         <v>-484189.3859626199</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1241" t="n">
         <v>220.2</v>
@@ -41997,7 +42197,7 @@
         <v>-479609.0115626199</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1242" t="n">
         <v>220.2</v>
@@ -42036,7 +42236,7 @@
         <v>-485475.0937626199</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1243" t="n">
         <v>220.4</v>
@@ -42075,7 +42275,7 @@
         <v>-482006.8742626199</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1244" t="n">
         <v>220.1</v>
@@ -42114,7 +42314,7 @@
         <v>-484631.7996626199</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1245" t="n">
         <v>220.6</v>
@@ -42153,7 +42353,7 @@
         <v>-482850.8985626199</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>220.5</v>
@@ -42192,11 +42392,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42231,11 +42429,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42270,11 +42466,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42309,11 +42503,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42348,11 +42540,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42387,7 +42577,7 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>220.7</v>
@@ -42426,11 +42616,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42465,11 +42653,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42504,11 +42690,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42543,11 +42727,9 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42582,11 +42764,9 @@
         <v>-485843.8836626199</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42621,11 +42801,9 @@
         <v>-485843.8836626199</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>220.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42660,11 +42838,9 @@
         <v>-482715.1703626199</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>220.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42699,11 +42875,9 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>220.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42738,11 +42912,9 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>220.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42777,11 +42949,9 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>220.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42816,11 +42986,9 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>220.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42855,11 +43023,9 @@
         <v>-481409.0784626199</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>220.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -42894,11 +43060,9 @@
         <v>-483720.2645626199</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -42933,11 +43097,9 @@
         <v>-478856.9455626198</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>220.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -42972,11 +43134,9 @@
         <v>-482199.8685626198</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>220.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43011,11 +43171,9 @@
         <v>-482199.8685626198</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43050,11 +43208,9 @@
         <v>-476624.5559626198</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43089,11 +43245,9 @@
         <v>-480288.2539626198</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>221.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43609,11 +43763,9 @@
         <v>-452934.6373626198</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>221.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43648,11 +43800,9 @@
         <v>-458362.3683626198</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>221.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43687,11 +43837,9 @@
         <v>-454446.8494626197</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>221.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43763,11 +43911,9 @@
         <v>-468342.8975626198</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43802,11 +43948,9 @@
         <v>-467255.3945626197</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>220.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43841,11 +43985,9 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>221.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43880,11 +44022,9 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>220.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43919,11 +44059,9 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>220.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43958,11 +44096,9 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>220.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43997,11 +44133,9 @@
         <v>-466928.5980626197</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>220.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -44036,11 +44170,9 @@
         <v>-461844.0508626198</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>221.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
@@ -44075,11 +44207,9 @@
         <v>-464484.6861626198</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
@@ -44573,6 +44703,6 @@
       <c r="M1309" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-23 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2503.392900000002</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2569.297399999998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10535.7444</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-6017.489699999997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-6663.172599999998</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-5939.657999999999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-15958.7842</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-13623.7288</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2045.996000000001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>2177.443399999999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>4204.756399999999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>7005.875499999999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>3848.212799999999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>5242.397199999999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2132.566</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-31525.12439999999</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-38634.9708</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-42624.1176</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-68962.34969999999</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-71832.07179999999</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-71832.07179999999</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-68096.0557</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-73005.86899999999</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-64661.40279999999</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-60919.61689999999</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-60919.61689999999</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-63857.06769999999</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-65781.05979999999</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-65533.69159999998</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-69345.35969999999</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-63346.26829999999</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-61354.45589999999</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-63261.65889999999</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-63261.65889999999</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-57488.68179999999</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-62028.87699999999</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-67556.95849999999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-64768.27649999999</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-66584.9136</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-71394.5564</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-71608.89110000001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-74973.28260000001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-79688.3894</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-79688.3894</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-76699.9391</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-80157.19750000001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-72853.41530000001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-76781.5586</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-83581.38190000001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-77162.9902</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-33529.67</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-39801.5852</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-34843.355</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-30578.8738</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-29128.1513</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-29128.1513</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-31359.7646</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-37514.479</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-37692.5386</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-37692.5386</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-37875.3562</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-41096.63370000001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-42953.46000000001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-42953.46000000001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-38993.81680000001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-38993.81680000001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-42219.27190000001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-39818.5047</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-44175.1476</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-44175.1476</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-45017.3712</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-38039.6333</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-40778.9058</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-40778.9058</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-34573.7908</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-34573.7908</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-37647.3725</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-35704.84270000001</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-35704.84270000001</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-31082.76850000001</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-33265.69780000001</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-37349.88480000001</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-39522.5675</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-44108.16510000001</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-44108.16510000001</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-38117.87680000001</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-43137.1963</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-46980.0941</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-51665.4147</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-49469.4732</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-43176.9325</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-47032.3704</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-45813.2969</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-49937.6643</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-48164.10750000001</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-44645.8083</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-40405.81429330001</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-44361.9246933</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-46007.16049330001</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-40879.77599330001</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-38098.3831933</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-36093.52309330001</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-41479.21489330001</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-41479.21489330001</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-37060.04209330001</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-39532.9148933</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-39030.93409330001</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-36197.95619330001</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-36376.13889330001</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-26973.51619330001</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-28138.2320933</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-28853.2590933</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-28853.2590933</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-30935.0044933</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-27396.7441933</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-27663.8555933</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-25596.2370933</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-26485.0836933</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-23311.6627933</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-23400.7187933</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-23400.7187933</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-22716.2688933</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-27218.0975933</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-19028.5468933</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-16767.6321933</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-20850.9569933</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-20850.9569933</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-16888.1739933</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-20559.4519933</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-20559.4519933</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-25578.5785933</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-23419.9370933</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-25830.2152933</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-29417.2496933</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-29436.81399329999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-34131.75149329999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-31210.29139329999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-36414.57299329999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-31367.87409329999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-35876.27469329999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-34046.01699329999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-38399.35389329999</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-34077.88189329999</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-34077.88189329999</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-30068.65749329999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-34124.71349329998</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-34124.71349329998</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-35995.70599329998</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-35995.70599329998</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-31748.45569329998</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-49261.92399329998</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-49261.92399329998</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-40957.24049329999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-33263.71409329998</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-35694.93069329998</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-35694.93069329998</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-39240.16229329998</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-34888.22049329998</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-33782.39019329998</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-32561.95989329998</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-36979.35569329998</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-30077.56889329998</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-33149.31009329997</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-28784.14019329998</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-31887.02969329998</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-38257.71769329998</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-40953.21409329998</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-38960.09109329998</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-41900.24069329997</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-35993.66019329998</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-37885.83729329998</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-29109.39859329998</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-32380.49439329998</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-33458.54389329998</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-38708.07439329998</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-45081.97229329997</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-47578.60329329997</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-45190.74529329997</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-40553.20019329997</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-40553.20019329997</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-37680.17439329997</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-40317.39329329997</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-36835.32639329997</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-31675.00809329997</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-30311.64649329997</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-32865.54019329997</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-31406.56389329997</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-30805.92659329997</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-33743.19679329997</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-32801.15179329997</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-26968.60499329997</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-7838.236693299967</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-5660.664593299966</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-3036.574381559966</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>14961.62101844003</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>31641.06201844003</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>24029.98771844003</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>10342.84741844003</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>9213.283618440031</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>4894.310018440031</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>7584.614918440031</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>12988.33333610003</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>11046.87193610003</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>11046.87193610003</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>9682.248236100031</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>5041.948936100031</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>6514.547736100031</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-8577.60016389997</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-12139.02716389997</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-12139.02716389997</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-9865.86246389997</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-12799.32596389997</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-6176.665263899969</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-28525.74956389997</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-29270.50176389997</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-30194.64316389997</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-32609.76666389997</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-37591.36006389997</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-40245.72986389997</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-35396.69056389997</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-32314.82516389998</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-118183.7045639</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35332,17 +35332,11 @@
         <v>-357696.6418639</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35371,17 +35365,11 @@
         <v>-357696.6418639</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>218.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35414,11 +35402,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35451,11 +35435,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35488,11 +35468,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35525,11 +35501,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35558,17 +35530,11 @@
         <v>-356035.6452639</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35597,17 +35563,11 @@
         <v>-358372.3098639</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35636,17 +35596,11 @@
         <v>-355317.6716639</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35675,17 +35629,11 @@
         <v>-358325.4811639</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35714,17 +35662,11 @@
         <v>-363865.3206639</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35753,17 +35695,11 @@
         <v>-360386.2809639</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>219.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35792,17 +35728,11 @@
         <v>-357637.1527639</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35831,17 +35761,11 @@
         <v>-361131.9689639</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35870,17 +35794,11 @@
         <v>-358031.9542639</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>219.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35909,17 +35827,11 @@
         <v>-353682.0908639</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1074" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35948,17 +35860,11 @@
         <v>-350038.8762639</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35987,17 +35893,11 @@
         <v>-347272.3000639</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36030,11 +35930,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36067,11 +35963,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36104,11 +35996,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36141,11 +36029,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36178,11 +36062,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36215,11 +36095,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36252,11 +36128,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +36161,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36326,11 +36194,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36363,11 +36227,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36400,11 +36260,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36437,11 +36293,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36474,11 +36326,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36511,11 +36359,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36548,11 +36392,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36585,11 +36425,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36622,11 +36458,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36659,11 +36491,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36696,11 +36524,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36733,11 +36557,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36770,11 +36590,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36807,11 +36623,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36844,11 +36656,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36881,11 +36689,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36918,11 +36722,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36955,11 +36755,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36992,11 +36788,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37029,11 +36821,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37066,11 +36854,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37103,11 +36887,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37140,11 +36920,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37177,11 +36953,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37214,11 +36986,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37251,11 +37019,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37288,11 +37052,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37325,11 +37085,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37362,11 +37118,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37399,11 +37151,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37436,11 +37184,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37473,11 +37217,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37510,11 +37250,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37547,11 +37283,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37584,11 +37316,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37621,11 +37349,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37658,11 +37382,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37695,11 +37415,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37732,11 +37448,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37769,11 +37481,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37806,11 +37514,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37843,11 +37547,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37880,11 +37580,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37917,11 +37613,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37954,11 +37646,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37991,11 +37679,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38028,11 +37712,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38065,11 +37745,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38102,11 +37778,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38139,11 +37811,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38176,11 +37844,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38213,11 +37877,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38250,11 +37910,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38287,11 +37943,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38324,11 +37976,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38361,11 +38009,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38398,11 +38042,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38435,11 +38075,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38472,11 +38108,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38509,11 +38141,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38546,11 +38174,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38583,11 +38207,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38620,11 +38240,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38657,11 +38273,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38694,11 +38306,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38727,15 +38335,11 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38764,15 +38368,11 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38801,15 +38401,11 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38838,15 +38434,11 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38875,15 +38467,11 @@
         <v>-358613.3962626199</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38912,15 +38500,11 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38949,15 +38533,11 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38986,15 +38566,11 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39023,15 +38599,11 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39060,15 +38632,11 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39097,15 +38665,11 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39134,15 +38698,11 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39171,15 +38731,11 @@
         <v>-371122.6532626199</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39208,15 +38764,11 @@
         <v>-376021.5920626199</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39249,11 +38801,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39286,11 +38834,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39323,11 +38867,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39360,11 +38900,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39397,11 +38933,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39434,11 +38966,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39471,11 +38999,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39508,11 +39032,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39545,11 +39065,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39582,11 +39098,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39619,11 +39131,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39652,17 +39160,11 @@
         <v>-448543.4649626199</v>
       </c>
       <c r="H1175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1175" t="n">
-        <v>219.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39691,17 +39193,11 @@
         <v>-454752.11476262</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1176" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39730,17 +39226,11 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>219.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39769,17 +39259,11 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39808,17 +39292,11 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39847,17 +39325,11 @@
         <v>-462260.0073626199</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39886,17 +39358,11 @@
         <v>-467328.0051626199</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>219.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39925,17 +39391,11 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39964,17 +39424,11 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1183" t="n">
-        <v>219.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40003,17 +39457,11 @@
         <v>-467607.5531626199</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1184" t="n">
-        <v>219.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40042,17 +39490,11 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40081,17 +39523,11 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1186" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40120,17 +39556,11 @@
         <v>-474203.3716626199</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1187" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40159,17 +39589,11 @@
         <v>-478169.6287626199</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40198,17 +39622,11 @@
         <v>-475040.6305626199</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40237,17 +39655,11 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1190" t="n">
-        <v>219.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40276,17 +39688,11 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1191" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40315,17 +39721,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>219.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40354,17 +39754,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40393,17 +39787,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40432,17 +39820,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1195" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40475,11 +39857,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40508,17 +39886,11 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40547,17 +39919,11 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40586,17 +39952,11 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40625,17 +39985,11 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40668,11 +40022,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40705,11 +40055,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40742,11 +40088,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40779,11 +40121,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40816,11 +40154,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40853,11 +40187,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40890,11 +40220,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40927,11 +40253,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40964,11 +40286,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41001,11 +40319,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41038,11 +40352,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41075,11 +40385,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41112,11 +40418,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41149,11 +40451,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41186,11 +40484,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41223,11 +40517,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41260,11 +40550,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41297,11 +40583,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41334,11 +40616,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41371,11 +40649,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41408,11 +40682,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41445,11 +40715,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41482,11 +40748,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41519,11 +40781,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41556,11 +40814,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41593,11 +40847,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41630,11 +40880,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41667,11 +40913,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41704,11 +40946,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41741,11 +40979,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41778,11 +41012,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41815,11 +41045,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41848,13 +41074,15 @@
         <v>-475342.6726626199</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1233" t="n">
@@ -42392,9 +41620,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42429,9 +41659,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42466,9 +41698,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42503,9 +41737,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42540,9 +41776,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42616,9 +41854,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42653,9 +41893,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42690,9 +41932,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42727,9 +41971,11 @@
         <v>-481571.9856626199</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42764,9 +42010,11 @@
         <v>-485843.8836626199</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42801,9 +42049,11 @@
         <v>-485843.8836626199</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42838,9 +42088,11 @@
         <v>-482715.1703626199</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42875,9 +42127,11 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42912,9 +42166,11 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42949,9 +42205,11 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42986,9 +42244,11 @@
         <v>-485347.5976626198</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43023,9 +42283,11 @@
         <v>-481409.0784626199</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43060,9 +42322,11 @@
         <v>-483720.2645626199</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43097,9 +42361,11 @@
         <v>-478856.9455626198</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43134,9 +42400,11 @@
         <v>-482199.8685626198</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43171,9 +42439,11 @@
         <v>-482199.8685626198</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43208,9 +42478,11 @@
         <v>-476624.5559626198</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43245,9 +42517,11 @@
         <v>-480288.2539626198</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43282,9 +42556,11 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43319,9 +42595,11 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>221</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43356,9 +42634,11 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>221</v>
+      </c>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43393,9 +42673,11 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>221</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
@@ -43430,9 +42712,11 @@
         <v>-466300.7600626198</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>221</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
@@ -43763,18 +43047,16 @@
         <v>-452934.6373626198</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1284" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1284" t="inlineStr"/>
       <c r="M1284" t="inlineStr"/>
     </row>
     <row r="1285">
@@ -43800,15 +43082,11 @@
         <v>-458362.3683626198</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43837,15 +43115,11 @@
         <v>-454446.8494626197</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43874,15 +43148,11 @@
         <v>-459822.4105626197</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43911,15 +43181,11 @@
         <v>-468342.8975626198</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -43952,11 +43218,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -43989,11 +43251,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -44026,11 +43284,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -44059,13 +43313,15 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>220.9</v>
+      </c>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1292" t="n">
@@ -44096,9 +43352,11 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>220.9</v>
+      </c>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -44133,9 +43391,11 @@
         <v>-466928.5980626197</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>220.9</v>
+      </c>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -44170,9 +43430,11 @@
         <v>-461844.0508626198</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>221.2</v>
+      </c>
       <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
@@ -44207,7 +43469,7 @@
         <v>-464484.6861626198</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44244,7 +43506,7 @@
         <v>-458010.1439626198</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44281,7 +43543,7 @@
         <v>-448006.9193626198</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44318,7 +43580,7 @@
         <v>-451455.0227626198</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44355,7 +43617,7 @@
         <v>-450586.8301626198</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44392,7 +43654,7 @@
         <v>-454518.4061626198</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44429,7 +43691,7 @@
         <v>-459954.7344626198</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44466,18 +43728,16 @@
         <v>-454481.6520626197</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1303" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1303" t="inlineStr"/>
       <c r="M1303" t="inlineStr"/>
     </row>
     <row r="1304">
@@ -44503,15 +43763,11 @@
         <v>-453086.0518626198</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44540,15 +43796,11 @@
         <v>-456990.0078626198</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44577,15 +43829,11 @@
         <v>-453130.3348626198</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44614,15 +43862,11 @@
         <v>-456801.8703626198</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44651,15 +43895,11 @@
         <v>-463038.3470626198</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44688,21 +43928,17 @@
         <v>-460295.7231626197</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
       <c r="M1309" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>